--- a/data/trans_dic/P16A_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A_R-Clase-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.06098961183464981</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.0804173487373525</v>
+        <v>0.08041734873735251</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.07248814802280167</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02652902676270665</v>
+        <v>0.02550376701902775</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02927398967668369</v>
+        <v>0.02914288762270544</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0406486245740866</v>
+        <v>0.04249290926946057</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06113880814432703</v>
+        <v>0.06094782928786453</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04886464529642377</v>
+        <v>0.04642139276225163</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04684060685311937</v>
+        <v>0.04803544817934761</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05524947378202102</v>
+        <v>0.05560692589364753</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07413287879010637</v>
+        <v>0.07326523115293658</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03737755710200592</v>
+        <v>0.03864142796654864</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04299302472600192</v>
+        <v>0.04206947183929883</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05290708740421314</v>
+        <v>0.05150707507723321</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.0724067343430423</v>
+        <v>0.07140178891412695</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06426019856614858</v>
+        <v>0.06497687430031493</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07971154947708746</v>
+        <v>0.0763396401842758</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08987200502618357</v>
+        <v>0.09135053153056415</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1039543380999515</v>
+        <v>0.1047743201379956</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1113080814508557</v>
+        <v>0.1063425786747322</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1108855173623187</v>
+        <v>0.1179396545865106</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1174120343907605</v>
+        <v>0.1150955098520751</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1167831467517505</v>
+        <v>0.1201697124666092</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07103846122101629</v>
+        <v>0.07186611695134851</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.07983593347711443</v>
+        <v>0.07913989090828245</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.09047729235371782</v>
+        <v>0.09032918344096061</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1044242785353593</v>
+        <v>0.1030388482282807</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.05546763262527578</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.06562775448572146</v>
+        <v>0.06562775448572145</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.08939961517884239</v>
@@ -833,7 +833,7 @@
         <v>0.0591666107777174</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.09545817434496721</v>
+        <v>0.0954581743449672</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02497775965592791</v>
+        <v>0.02450226833332646</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03315432342278656</v>
+        <v>0.03249094894174018</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03422681397923006</v>
+        <v>0.03411873637759347</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04747672818121625</v>
+        <v>0.04680804900684923</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06278160134035374</v>
+        <v>0.06491779984127248</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06151240513075603</v>
+        <v>0.05973714293085193</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04138523207941543</v>
+        <v>0.04191466638247729</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1039368642187797</v>
+        <v>0.1048151812216669</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04881923639163968</v>
+        <v>0.05062519253744534</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.05077180104407078</v>
+        <v>0.05279873439161797</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04451667434357289</v>
+        <v>0.04197942141770368</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.07907091021935941</v>
+        <v>0.07986389671388358</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06804044164574723</v>
+        <v>0.06878634169567041</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08915215601621902</v>
+        <v>0.08789834164756131</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0823303923022649</v>
+        <v>0.08368872418402327</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09016130752619096</v>
+        <v>0.09169311649614968</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.12083749055208</v>
+        <v>0.1225902026160165</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1256260351122863</v>
+        <v>0.1243931559347468</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09751765840808188</v>
+        <v>0.09385903763491661</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1563834349163991</v>
+        <v>0.1592913652637418</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08722595792617359</v>
+        <v>0.08939031775845188</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.09055783357010586</v>
+        <v>0.09472028640596078</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.08027465040290202</v>
+        <v>0.08173037096879068</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1127605582318259</v>
+        <v>0.1136499549183027</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03720700671895154</v>
+        <v>0.03676945892105137</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0779678498174011</v>
+        <v>0.07982384243033888</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.041513867129331</v>
+        <v>0.03987138237921976</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0770530490894695</v>
+        <v>0.07883428445143098</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.08298206707307004</v>
+        <v>0.08123753844447534</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1377894376214403</v>
+        <v>0.1338890395043751</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1173141247525838</v>
+        <v>0.1238369996070382</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.161923922360851</v>
+        <v>0.1635445487900137</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05389174819023886</v>
+        <v>0.05389051328928834</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.101814703905714</v>
+        <v>0.1012898134296912</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.06857495671397401</v>
+        <v>0.06781326808272863</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1110641495541984</v>
+        <v>0.1103330704310837</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07218640460290654</v>
+        <v>0.07441878536245841</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1288890951767973</v>
+        <v>0.1291947882333483</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08347659364473767</v>
+        <v>0.08223005879407969</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1340900770651621</v>
+        <v>0.1368985295139526</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1838144727159159</v>
+        <v>0.1859342958459302</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2351899085569509</v>
+        <v>0.2275929314973303</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2402647119705453</v>
+        <v>0.2466769954385775</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2551472684085499</v>
+        <v>0.2605840988006142</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.09026641873082425</v>
+        <v>0.09281507826017452</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1502463176482624</v>
+        <v>0.1476227428877085</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1139761842843493</v>
+        <v>0.1107066241401161</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1563307985598919</v>
+        <v>0.1601812619105376</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.07026574714727166</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.09374463019284134</v>
+        <v>0.09374463019284132</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.09840775584341935</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03832000331609717</v>
+        <v>0.03899408565385858</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05511296225978292</v>
+        <v>0.05696730004834224</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05591621643100125</v>
+        <v>0.05640479216803099</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07877687557370053</v>
+        <v>0.07655755507100651</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07681052626873802</v>
+        <v>0.07570440605478874</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1104616569684556</v>
+        <v>0.112769027649449</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1075458475729914</v>
+        <v>0.108099736434388</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1351737393479341</v>
+        <v>0.1334001909678575</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05672348539253917</v>
+        <v>0.05656199487413083</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.0839000855563205</v>
+        <v>0.08357324884661385</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.08279353699497362</v>
+        <v>0.08241648386798918</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1089084734711602</v>
+        <v>0.108454799469334</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06211285989901296</v>
+        <v>0.06227111822997321</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08759783879487355</v>
+        <v>0.0872516133879202</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08692187977465861</v>
+        <v>0.08894397006003413</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1098646915126905</v>
+        <v>0.1097180226934344</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1198083859663622</v>
+        <v>0.1224033036424227</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1625237213631754</v>
+        <v>0.162554753725184</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1571229076332851</v>
+        <v>0.154538299409873</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1755957673467678</v>
+        <v>0.1754044045961368</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07842354789388535</v>
+        <v>0.07879480648466682</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1109621661062249</v>
+        <v>0.1107211095170173</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1107713565659185</v>
+        <v>0.1088359203218005</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1335681358468234</v>
+        <v>0.1330211991296103</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.218379757862708</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.2438037579395823</v>
+        <v>0.2438037579395822</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.109479405623726</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04931921999126309</v>
+        <v>0.05141655256725246</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04170748890072642</v>
+        <v>0.04131404594108096</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05903619150227404</v>
+        <v>0.05901819903039925</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07978163043464759</v>
+        <v>0.07854290999426351</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1037285921440071</v>
+        <v>0.1042187075503111</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1683554514859324</v>
+        <v>0.1722017212467507</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1872292350373319</v>
+        <v>0.1903596485155291</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2210447757884495</v>
+        <v>0.2192754163485237</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.09146259919655175</v>
+        <v>0.08937512637758879</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1241229170234818</v>
+        <v>0.1243588019798315</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1357584179855958</v>
+        <v>0.1367956151541602</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1682401015210694</v>
+        <v>0.1708447953245204</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.105327642456373</v>
+        <v>0.1030449845081521</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08532349158613002</v>
+        <v>0.08206619935915904</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1055647512091494</v>
+        <v>0.1023764371806372</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1304968726007456</v>
+        <v>0.1291045516704407</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1616178038281126</v>
+        <v>0.1630803512108002</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2293974749590384</v>
+        <v>0.2329896746553051</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2500790738105351</v>
+        <v>0.2525570637984692</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2699348832442955</v>
+        <v>0.2668026644193605</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1302816211858606</v>
+        <v>0.1301293090869839</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.166069094657207</v>
+        <v>0.164431964040556</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1739943018867459</v>
+        <v>0.1752680080960019</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2056477442120589</v>
+        <v>0.2064912975538732</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.01768465724246468</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.05818513558788514</v>
+        <v>0.05818513558788515</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.1232490632626319</v>
@@ -1365,7 +1365,7 @@
         <v>0.1723106889098998</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.1969337385609359</v>
+        <v>0.196933738560936</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.1061738084785452</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01777493914580518</v>
+        <v>0.01634908933754504</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01038163239907785</v>
+        <v>0.01062057599955545</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.006479427895633094</v>
+        <v>0.006794036373650918</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02943611151221039</v>
+        <v>0.02924042052240661</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1051818075154732</v>
+        <v>0.1063505148865704</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1543668816513303</v>
+        <v>0.1534474688271198</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1476533544377545</v>
+        <v>0.1505703532186315</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1746943174711585</v>
+        <v>0.1742833281687924</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.09195556464250908</v>
+        <v>0.09104811834398113</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1289510620350472</v>
+        <v>0.129974186206886</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1207347081553823</v>
+        <v>0.1214367738675722</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1470451486909096</v>
+        <v>0.1469938252524402</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.06247036049911468</v>
+        <v>0.05902318572422122</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05426793984359073</v>
+        <v>0.05408534229844941</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.04047519219972033</v>
+        <v>0.03977987540247271</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1078832741908094</v>
+        <v>0.114440240793313</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1421621494701903</v>
+        <v>0.1433714719331677</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2020130187031673</v>
+        <v>0.1994768850984085</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1976122742398137</v>
+        <v>0.1974787651592213</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2198741892514378</v>
+        <v>0.2213978034272831</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1220985337793346</v>
+        <v>0.1228504027625389</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1697344740384987</v>
+        <v>0.1688552357117895</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1617995172269028</v>
+        <v>0.1616939746755661</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1889776611423878</v>
+        <v>0.1888733566228357</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.04098405211224936</v>
+        <v>0.04266075384429357</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05702431776733159</v>
+        <v>0.05734999844291108</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0553244311745118</v>
+        <v>0.05525322307343974</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07846560042145455</v>
+        <v>0.07815579002881951</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.100746690285043</v>
+        <v>0.1010138689536738</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1439324405513464</v>
+        <v>0.1428613122179271</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1402593515153544</v>
+        <v>0.1398608076306641</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1666284974635993</v>
+        <v>0.16671778318706</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.07394551148599338</v>
+        <v>0.07430792052938115</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1040664220368457</v>
+        <v>0.1042774293055512</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1011142228669145</v>
+        <v>0.1016912120488605</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1263143511056922</v>
+        <v>0.1269725619733138</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.05666480353113138</v>
+        <v>0.05741105338687474</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.07566335877170935</v>
+        <v>0.0757906432254859</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.07162290103381166</v>
+        <v>0.07127669916313599</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.09756141083944039</v>
+        <v>0.09782568828831574</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1233392294544069</v>
+        <v>0.1229109577352773</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1679278655498239</v>
+        <v>0.1677088769554883</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1654482578241824</v>
+        <v>0.1645915601349389</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1868394092050145</v>
+        <v>0.1878937241805495</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.08745958737150095</v>
+        <v>0.08759283284141078</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.11934895410376</v>
+        <v>0.1206018439284166</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1168166645962891</v>
+        <v>0.1167579789959509</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1407615376065129</v>
+        <v>0.1410862886011362</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>12569</v>
+        <v>12083</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>12799</v>
+        <v>12742</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>17442</v>
+        <v>18233</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>33664</v>
+        <v>33559</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>14986</v>
+        <v>14237</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>14729</v>
+        <v>15105</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>19175</v>
+        <v>19299</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>36207</v>
+        <v>35784</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>29172</v>
+        <v>30158</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>32316</v>
+        <v>31622</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>41064</v>
+        <v>39977</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>75233</v>
+        <v>74189</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>30445</v>
+        <v>30784</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>34851</v>
+        <v>33377</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>38563</v>
+        <v>39198</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>57239</v>
+        <v>57691</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>34136</v>
+        <v>32613</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>34868</v>
+        <v>37087</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>40748</v>
+        <v>39944</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>57038</v>
+        <v>58692</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>55442</v>
+        <v>56088</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>60010</v>
+        <v>59487</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>70224</v>
+        <v>70109</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>108500</v>
+        <v>107060</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>9165</v>
+        <v>8991</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>13885</v>
+        <v>13607</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>12911</v>
+        <v>12871</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>22941</v>
+        <v>22618</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>23346</v>
+        <v>24141</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>20792</v>
+        <v>20192</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>15407</v>
+        <v>15604</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>43980</v>
+        <v>44352</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>36068</v>
+        <v>37402</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>38425</v>
+        <v>39959</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>33365</v>
+        <v>31464</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>71666</v>
+        <v>72385</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>24966</v>
+        <v>25240</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>37337</v>
+        <v>36812</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>31057</v>
+        <v>31570</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>43567</v>
+        <v>44307</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>44935</v>
+        <v>45587</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>42463</v>
+        <v>42046</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>36303</v>
+        <v>34941</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>66173</v>
+        <v>67403</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>64442</v>
+        <v>66041</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>68535</v>
+        <v>71685</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>60166</v>
+        <v>61257</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>102201</v>
+        <v>103007</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>20181</v>
+        <v>19943</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>49074</v>
+        <v>50242</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>21667</v>
+        <v>20809</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>36339</v>
+        <v>37179</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>13923</v>
+        <v>13630</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>35843</v>
+        <v>34828</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>19489</v>
+        <v>20572</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>30360</v>
+        <v>30664</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>38272</v>
+        <v>38271</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>90569</v>
+        <v>90102</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>47182</v>
+        <v>46658</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>73203</v>
+        <v>72722</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>39153</v>
+        <v>40364</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>81125</v>
+        <v>81317</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>43568</v>
+        <v>42917</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>63238</v>
+        <v>64563</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>30841</v>
+        <v>31196</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>61180</v>
+        <v>59204</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>39913</v>
+        <v>40979</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>47839</v>
+        <v>48859</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>64105</v>
+        <v>65915</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>133651</v>
+        <v>131317</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>78420</v>
+        <v>76170</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>103039</v>
+        <v>105577</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>47453</v>
+        <v>48288</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>63876</v>
+        <v>66026</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>64283</v>
+        <v>64845</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>89163</v>
+        <v>86651</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>54865</v>
+        <v>54075</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>84686</v>
+        <v>86455</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>88820</v>
+        <v>89277</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>116413</v>
+        <v>114886</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>110759</v>
+        <v>110444</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>161564</v>
+        <v>160934</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>163560</v>
+        <v>162815</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>217060</v>
+        <v>216156</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>76916</v>
+        <v>77112</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>101527</v>
+        <v>101125</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>99929</v>
+        <v>102253</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>124350</v>
+        <v>124184</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>85577</v>
+        <v>87431</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>124600</v>
+        <v>124624</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>129764</v>
+        <v>127629</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>151225</v>
+        <v>151060</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>153131</v>
+        <v>153856</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>213676</v>
+        <v>213212</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>218830</v>
+        <v>215007</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>266209</v>
+        <v>265118</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>17289</v>
+        <v>18024</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>21296</v>
+        <v>21095</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>36644</v>
+        <v>36633</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>45313</v>
+        <v>44610</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>58996</v>
+        <v>59275</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>128206</v>
+        <v>131135</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>138221</v>
+        <v>140532</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>183655</v>
+        <v>182185</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>84082</v>
+        <v>82163</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>157899</v>
+        <v>158199</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>184489</v>
+        <v>185898</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>235337</v>
+        <v>238980</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>36923</v>
+        <v>36123</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>43566</v>
+        <v>41903</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>65525</v>
+        <v>63546</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>74118</v>
+        <v>73327</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>91920</v>
+        <v>92752</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>174691</v>
+        <v>177427</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>184619</v>
+        <v>186449</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>224275</v>
+        <v>221673</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>119769</v>
+        <v>119629</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>211259</v>
+        <v>209177</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>236450</v>
+        <v>238180</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>287663</v>
+        <v>288843</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>5301</v>
+        <v>4875</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>2771</v>
+        <v>2834</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1861</v>
+        <v>1951</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>6983</v>
+        <v>6937</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>131347</v>
+        <v>132806</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>171247</v>
+        <v>170227</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>159765</v>
+        <v>162921</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>147491</v>
+        <v>147144</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>142252</v>
+        <v>140848</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>177467</v>
+        <v>178875</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>165306</v>
+        <v>166268</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>159031</v>
+        <v>158975</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>18629</v>
+        <v>17601</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>14483</v>
+        <v>14434</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>11622</v>
+        <v>11423</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>25593</v>
+        <v>27148</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>177526</v>
+        <v>179037</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>224103</v>
+        <v>221290</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>213821</v>
+        <v>213677</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>185636</v>
+        <v>186922</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>188882</v>
+        <v>190045</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>233594</v>
+        <v>232384</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>221531</v>
+        <v>221387</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>204381</v>
+        <v>204268</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>134026</v>
+        <v>139509</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>195132</v>
+        <v>196247</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>187313</v>
+        <v>187072</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>270116</v>
+        <v>269049</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>340335</v>
+        <v>341237</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>510978</v>
+        <v>507176</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>495339</v>
+        <v>493932</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>605760</v>
+        <v>606085</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>491613</v>
+        <v>494022</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>725555</v>
+        <v>727026</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>699439</v>
+        <v>703430</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>894036</v>
+        <v>898695</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>185305</v>
+        <v>187745</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>258913</v>
+        <v>259349</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>242495</v>
+        <v>241323</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>335853</v>
+        <v>336763</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>416655</v>
+        <v>415208</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>596165</v>
+        <v>595387</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>584296</v>
+        <v>581271</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>679235</v>
+        <v>683068</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>581459</v>
+        <v>582345</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>832105</v>
+        <v>840840</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>808058</v>
+        <v>807652</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>996292</v>
+        <v>998590</v>
       </c>
     </row>
     <row r="32">
